--- a/ТИ1.xlsx
+++ b/ТИ1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fumycat\Desktop\it1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F3E2F-D3D1-4D7A-924A-362EA46F1B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22EDEC1-A925-4CAE-B88B-D75A260D917D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оценка энтропии (частоты отдельных символов)</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>p2</t>
+  </si>
+  <si>
+    <t>пары</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -413,7 +416,10 @@
       <c r="D2" s="10">
         <v>2.3115000000000001</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11">
+        <f>ROUND(B23, 4)</f>
+        <v>2.3218999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -429,7 +435,10 @@
       <c r="D3" s="10">
         <v>1.9148000000000001</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <f>ROUND(E33, 4)</f>
+        <v>1.9218999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -528,6 +537,197 @@
         <v>1.9219280948873623</v>
       </c>
     </row>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>0.2 * 0.2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <f>$D21 * E$20</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:H24" si="5">$D21 * F$20</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f>LOG(B21, 2) * B21</f>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
+        <f>$D22 * E$20</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>B22 * 25 * -1 / 2</f>
+        <v>2.3219280948873626</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <f>$D23 * E$20</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E24">
+        <f>$D24 * E$20</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <f>LOG(E21, 2) * E21</f>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:H27" si="6">LOG(F21, 2) * F21</f>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>-0.29150849518197802</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <f t="shared" ref="E28:H31" si="7">LOG(E22, 2) * E22</f>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>-0.29150849518197802</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>-0.18575424759098902</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>-0.29150849518197802</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>-0.29150849518197802</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>-0.29150849518197802</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>-0.29150849518197802</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>-0.42301699036395596</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f>SUM(E27:H30) /  2 * -1</f>
+        <v>1.9219280948873623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
